--- a/Miscellaneous/AIC_comparison.xlsx
+++ b/Miscellaneous/AIC_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moin2\OneDrive\Documents\Bareground\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moin2\OneDrive\Documents\Bareground\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9622A42B-8735-49CD-BFD1-104FF3E2847D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FC6DD5-01EE-45C1-BFF5-B508E11B2CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12756" yWindow="1416" windowWidth="17280" windowHeight="8964" xr2:uid="{1882B9CB-AC95-404B-84AD-677EC62A16F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1882B9CB-AC95-404B-84AD-677EC62A16F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -109,14 +109,46 @@
   </si>
   <si>
     <t>zizia.aurea</t>
+  </si>
+  <si>
+    <t>SPDX and AGDU</t>
+  </si>
+  <si>
+    <t>SP and HI</t>
+  </si>
+  <si>
+    <t>litho.incis</t>
+  </si>
+  <si>
+    <t>ranun.arbor</t>
+  </si>
+  <si>
+    <t>trill.cernu</t>
+  </si>
+  <si>
+    <t>SP and AGDU</t>
+  </si>
+  <si>
+    <t>SP and AT</t>
+  </si>
+  <si>
+    <t>No SP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -144,8 +176,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DCEE7C-1043-4F17-B2CC-C601DE576867}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,315 +511,808 @@
     <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>884.529</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>640.15899999999999</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>731.59400000000005</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>611.36199999999997</v>
+      </c>
+      <c r="H3" s="4">
+        <v>359.24700000000001</v>
+      </c>
+      <c r="I3">
+        <v>453.22399999999999</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>887.98699999999997</v>
+      </c>
+      <c r="M3">
+        <v>643.62099999999998</v>
+      </c>
+      <c r="N3">
+        <v>731.59400000000005</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>832.07899999999995</v>
+      </c>
+      <c r="R3">
+        <v>588.66</v>
+      </c>
+      <c r="S3">
+        <v>677.89800000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>772.72699999999998</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>543.06200000000001</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>745.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>619.93799999999999</v>
+      </c>
+      <c r="H4" s="4">
+        <v>367.2</v>
+      </c>
+      <c r="I4">
+        <v>462.50700000000001</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>659.02</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>605.72900000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>906.48500000000001</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>662.56399999999996</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>750.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>635.46799999999996</v>
+      </c>
+      <c r="H5" s="4">
+        <v>385.97699999999998</v>
+      </c>
+      <c r="I5">
+        <v>477.185</v>
+      </c>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>663.53399999999999</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>618.14200000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>891.40200000000004</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>647.30499999999995</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>744.94799999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>622.029</v>
+      </c>
+      <c r="H6" s="4">
+        <v>370.10500000000002</v>
+      </c>
+      <c r="I6">
+        <v>464.63299999999998</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>657.80600000000004</v>
+      </c>
+      <c r="P6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <v>607.18600000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>877.15</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>637.05799999999999</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>724.58799999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>604.81200000000001</v>
+      </c>
+      <c r="H7" s="4">
+        <v>352.09100000000001</v>
+      </c>
+      <c r="I7">
+        <v>454.71699999999998</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>636.69500000000005</v>
+      </c>
+      <c r="P7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>895.56700000000001</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>651.42999999999995</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>728.61900000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>603.66499999999996</v>
+      </c>
+      <c r="H8" s="4">
+        <v>355.57400000000001</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>903.86900000000003</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>659.32100000000003</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>751.923</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>623.87900000000002</v>
+      </c>
+      <c r="H9" s="4">
+        <v>381.63499999999999</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>876.39099999999996</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>633.697</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>722.10199999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>598.87300000000005</v>
+      </c>
+      <c r="H10" s="4">
+        <v>345.839</v>
+      </c>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>903.03899999999999</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>664.68799999999999</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>738.03599999999994</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>624.58500000000004</v>
+      </c>
+      <c r="H11" s="4">
+        <v>371.488</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12">
+        <v>607.06399999999996</v>
+      </c>
+      <c r="H12" s="4">
+        <v>356.51400000000001</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>757.18399999999997</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>532.47</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>738.01499999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>603.98299999999995</v>
+      </c>
+      <c r="H13" s="4">
+        <v>359.17700000000002</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>844.11500000000001</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>602.14499999999998</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>762.42</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>641.98</v>
+      </c>
+      <c r="H14" s="4">
+        <v>390.84899999999999</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>906.49099999999999</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>665.89400000000001</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>735.63499999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>612.41700000000003</v>
+      </c>
+      <c r="H15" s="4">
+        <v>361.13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>875.97900000000004</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>632.76900000000001</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>735.476</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>611.62099999999998</v>
+      </c>
+      <c r="H16" s="4">
+        <v>358.495</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>892.99400000000003</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>658.64099999999996</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>738.91200000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <v>619.70799999999997</v>
+      </c>
+      <c r="H17" s="4">
+        <v>366.97</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>901.45500000000004</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>659.06600000000003</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>744.24900000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>622.54399999999998</v>
+      </c>
+      <c r="H18" s="4">
+        <v>369.517</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19">
+        <v>597.24800000000005</v>
+      </c>
+      <c r="H19" s="4">
+        <v>351.18099999999998</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="B20">
         <v>821.101</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <v>578.25</v>
       </c>
-      <c r="D17">
+      <c r="D20">
         <v>755.73</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>638.55100000000004</v>
+      </c>
+      <c r="H20" s="4">
+        <v>386.584</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B21">
         <v>887.04399999999998</v>
       </c>
-      <c r="C18">
+      <c r="C21">
         <v>642.63400000000001</v>
       </c>
-      <c r="D18">
+      <c r="D21">
         <v>734.64200000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>611.21400000000006</v>
+      </c>
+      <c r="H21" s="4">
+        <v>358.97</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B22">
         <v>892.26099999999997</v>
       </c>
-      <c r="C19">
+      <c r="C22">
         <v>647.73</v>
       </c>
-      <c r="D19">
+      <c r="D22">
         <v>740.86099999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>611.53200000000004</v>
+      </c>
+      <c r="H22" s="4">
+        <v>367.83100000000002</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23">
+        <v>603.98299999999995</v>
+      </c>
+      <c r="H23" s="4">
+        <v>359.17700000000002</v>
+      </c>
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B24">
         <v>879.97299999999996</v>
       </c>
-      <c r="C20">
+      <c r="C24">
         <v>635.55899999999997</v>
       </c>
-      <c r="D20">
+      <c r="D24">
         <v>756.30100000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>632.625</v>
+      </c>
+      <c r="H24" s="4">
+        <v>381.65899999999999</v>
+      </c>
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
+      <c r="B25">
         <v>847.30399999999997</v>
       </c>
-      <c r="C21">
+      <c r="C25">
         <v>609.78899999999999</v>
       </c>
-      <c r="D21">
+      <c r="D25">
         <v>724.22900000000004</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <v>599.21699999999998</v>
+      </c>
+      <c r="H25" s="4">
+        <v>350.35399999999998</v>
+      </c>
+      <c r="K25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
+      <c r="B26">
         <v>934.39400000000001</v>
       </c>
-      <c r="C22">
+      <c r="C26">
         <v>690.32</v>
       </c>
-      <c r="D22">
+      <c r="D26">
         <v>777.45600000000002</v>
       </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>662.94899999999996</v>
+      </c>
+      <c r="H26" s="4">
+        <v>410.69099999999997</v>
+      </c>
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:T1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>